--- a/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Individual_Student_Progress_Sheet_13M30_Phase2.xlsx
+++ b/MIL.RTI.CourseDocumentGenerator/MIL.RTI.CourseDocumentGenerator/Files/13M30/Individual_Student_Progress_Sheet_13M30_Phase2.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\github\CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\MIL.RTI.CourseDocumentGenerator\Files\13M30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF5A087-7942-4EEF-A5A5-A6D79E31A196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25C7738-DD9B-4028-8C24-48C10829C64D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>GO</t>
   </si>
@@ -37,13 +37,80 @@
     <t>Individual Student Progress Sheet</t>
   </si>
   <si>
-    <t>Verified BY:_________________________________</t>
+    <t>Verified BY:________________________________</t>
   </si>
   <si>
     <t>2nd Bn, 196TH REGT (RTISD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Name:         </t>
+    <t xml:space="preserve">Name:             </t>
+  </si>
+  <si>
+    <t>061-GS63IP/Conduct In-Process and Orientation</t>
+  </si>
+  <si>
+    <t>061-GS63PT-2/Conduct Physical Readiness Training</t>
+  </si>
+  <si>
+    <t>061-GS63AM/Field Artillery Mission, Roles, and Organization</t>
+  </si>
+  <si>
+    <t>061-GS63FM/Perform Section Chief duties on an M270A1 MLRS and/or M142 HIMARS</t>
+  </si>
+  <si>
+    <t>061-GS63RL/Direct an M142 HIMARS and M270A1 MLRS Reload</t>
+  </si>
+  <si>
+    <t>061-GS63RG/Direct the M142 HIMARS for Air Load</t>
+  </si>
+  <si>
+    <t>061-GS63RD/Perform Section Chief Duties during an M270A1 MLRS/M142 HIMARS Raid</t>
+  </si>
+  <si>
+    <t>061-GS63ED/Direct Emergency Destruction Procedures on MLRS/HIMARS Ammunition and Equipment</t>
+  </si>
+  <si>
+    <t>061-GS63AR/Organize a Multiple Launch Rocket System (MLRS) and a High Mobility Artillery Rocket System (HIMARS)
+Ammunition Resupply at the Section Level</t>
+  </si>
+  <si>
+    <t>061-GS63CR/Coordinate Ammunition Resupply</t>
+  </si>
+  <si>
+    <t>061-GS63TS/Perform Troubleshooting on an M270A1MLRS / M142 HIMARS Launcher</t>
+  </si>
+  <si>
+    <t>061-GS63DG/Operate the M142 HIMARS and M270A1 MLRS during Degraded Operations</t>
+  </si>
+  <si>
+    <t>061-GS6302/Conduct 13M30 Written Examination and Critique</t>
+  </si>
+  <si>
+    <t>061-GS6301/Conduct 13M30 Performance Examination and Critique</t>
+  </si>
+  <si>
+    <t>061-GS63CP/Joint Battle Command-Platform (JBC-P)</t>
+  </si>
+  <si>
+    <t>061-GS63AS/Conduct Performance Safety examination and Critique</t>
+  </si>
+  <si>
+    <t>061-GS63FM-1/Conduct Pre-Combat Checks (PCC) on a launcher</t>
+  </si>
+  <si>
+    <t>061-GS63FM-2Launcher Chief Duties – FTX Recovery</t>
+  </si>
+  <si>
+    <t>061-GS63SXField Training Exercise (FTX)</t>
+  </si>
+  <si>
+    <t>061-GS63CE/End of Course Evaluation</t>
+  </si>
+  <si>
+    <t>061-GS63GR/Conduct End of Course and Graduation</t>
+  </si>
+  <si>
+    <t>061-GS63OP/Conduct Out-Process</t>
   </si>
   <si>
     <t>13M30 ALC Phase 2              TASK NUMBER</t>
@@ -53,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,11 +154,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -115,18 +177,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -231,44 +287,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,52 +698,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>0</v>
@@ -698,39 +759,217 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L
-&amp;C13M10 Student Progress Control Worksheet&amp;R196th Regiment</oddHeader>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>